--- a/ipynb/corporate-finance/datasets/form2.xlsx
+++ b/ipynb/corporate-finance/datasets/form2.xlsx
@@ -295,15 +295,15 @@
     <t>프로테옴텍</t>
   </si>
   <si>
+    <t>하이제8호스팩</t>
+  </si>
+  <si>
+    <t>KB제25호스팩</t>
+  </si>
+  <si>
     <t>엔에이치스팩29호</t>
   </si>
   <si>
-    <t>KB제25호스팩</t>
-  </si>
-  <si>
-    <t>하이제8호스팩</t>
-  </si>
-  <si>
     <t>하나29호스팩</t>
   </si>
   <si>
@@ -328,12 +328,12 @@
     <t>필에너지</t>
   </si>
   <si>
+    <t>센서뷰</t>
+  </si>
+  <si>
     <t>와이랩</t>
   </si>
   <si>
-    <t>센서뷰</t>
-  </si>
-  <si>
     <t>한화</t>
   </si>
   <si>
@@ -559,12 +559,12 @@
     <t>2023-07-14</t>
   </si>
   <si>
+    <t>2023-07-19</t>
+  </si>
+  <si>
     <t>2023-07-20</t>
   </si>
   <si>
-    <t>2023-07-19</t>
-  </si>
-  <si>
     <t>-</t>
   </si>
   <si>
@@ -673,15 +673,15 @@
     <t>35.43 : 1</t>
   </si>
   <si>
+    <t>125.4 : 1</t>
+  </si>
+  <si>
+    <t>117.06 : 1</t>
+  </si>
+  <si>
     <t>18.31 : 1</t>
   </si>
   <si>
-    <t>117.06 : 1</t>
-  </si>
-  <si>
-    <t>125.4 : 1</t>
-  </si>
-  <si>
     <t>69.3655 : 1</t>
   </si>
   <si>
@@ -706,10 +706,10 @@
     <t>1318.3 : 1</t>
   </si>
   <si>
+    <t>1568 : 1</t>
+  </si>
+  <si>
     <t>1917.16 : 1</t>
-  </si>
-  <si>
-    <t>1568 : 1</t>
   </si>
 </sst>
 </file>
@@ -3313,19 +3313,19 @@
         <v>93</v>
       </c>
       <c r="C37" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="D37" t="s">
         <v>151</v>
       </c>
       <c r="E37" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F37">
-        <v>25500000</v>
+        <v>8500000</v>
       </c>
       <c r="G37">
-        <v>12750000</v>
+        <v>4250000</v>
       </c>
       <c r="H37" t="s">
         <v>183</v>
@@ -3437,19 +3437,19 @@
         <v>95</v>
       </c>
       <c r="C39" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="D39" t="s">
         <v>151</v>
       </c>
       <c r="E39" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F39">
-        <v>8500000</v>
+        <v>25500000</v>
       </c>
       <c r="G39">
-        <v>4250000</v>
+        <v>12750000</v>
       </c>
       <c r="H39" t="s">
         <v>183</v>
@@ -4057,7 +4057,7 @@
         <v>104</v>
       </c>
       <c r="C49" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="D49" t="s">
         <v>157</v>
@@ -4066,25 +4066,25 @@
         <v>181</v>
       </c>
       <c r="F49">
-        <v>27000000</v>
+        <v>17550000</v>
       </c>
       <c r="G49">
-        <v>3000000</v>
+        <v>3900000</v>
       </c>
       <c r="H49" t="s">
         <v>183</v>
       </c>
       <c r="I49">
-        <v>7000</v>
+        <v>2900</v>
       </c>
       <c r="J49">
-        <v>8000</v>
+        <v>3600</v>
       </c>
       <c r="K49" t="s">
         <v>183</v>
       </c>
       <c r="L49">
-        <v>9000</v>
+        <v>4500</v>
       </c>
       <c r="M49" t="s">
         <v>183</v>
@@ -4119,7 +4119,7 @@
         <v>105</v>
       </c>
       <c r="C50" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="D50" t="s">
         <v>157</v>
@@ -4128,25 +4128,25 @@
         <v>182</v>
       </c>
       <c r="F50">
-        <v>17550000</v>
+        <v>27000000</v>
       </c>
       <c r="G50">
-        <v>3900000</v>
+        <v>3000000</v>
       </c>
       <c r="H50" t="s">
         <v>183</v>
       </c>
       <c r="I50">
-        <v>2900</v>
+        <v>7000</v>
       </c>
       <c r="J50">
-        <v>3600</v>
+        <v>8000</v>
       </c>
       <c r="K50" t="s">
         <v>183</v>
       </c>
       <c r="L50">
-        <v>4500</v>
+        <v>9000</v>
       </c>
       <c r="M50" t="s">
         <v>183</v>
